--- a/Team-Data/2011-12/2-18-2011-12.xlsx
+++ b/Team-Data/2011-12/2-18-2011-12.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,67 +733,67 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E2" t="n">
         <v>19</v>
       </c>
       <c r="F2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G2" t="n">
-        <v>0.613</v>
+        <v>0.633</v>
       </c>
       <c r="H2" t="n">
         <v>49</v>
       </c>
       <c r="I2" t="n">
-        <v>36</v>
+        <v>36.2</v>
       </c>
       <c r="J2" t="n">
-        <v>80.90000000000001</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="K2" t="n">
-        <v>0.445</v>
+        <v>0.446</v>
       </c>
       <c r="L2" t="n">
         <v>7.1</v>
       </c>
       <c r="M2" t="n">
-        <v>18.6</v>
+        <v>18.4</v>
       </c>
       <c r="N2" t="n">
-        <v>0.382</v>
+        <v>0.388</v>
       </c>
       <c r="O2" t="n">
-        <v>15.4</v>
+        <v>15.6</v>
       </c>
       <c r="P2" t="n">
-        <v>21</v>
+        <v>21.3</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.733</v>
+        <v>0.732</v>
       </c>
       <c r="R2" t="n">
-        <v>10.1</v>
+        <v>10.3</v>
       </c>
       <c r="S2" t="n">
-        <v>31.3</v>
+        <v>31.6</v>
       </c>
       <c r="T2" t="n">
-        <v>41.4</v>
+        <v>41.8</v>
       </c>
       <c r="U2" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="V2" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="W2" t="n">
         <v>8.1</v>
       </c>
       <c r="X2" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Y2" t="n">
         <v>4.9</v>
@@ -735,22 +802,22 @@
         <v>17.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>18.8</v>
+        <v>19</v>
       </c>
       <c r="AB2" t="n">
-        <v>94.5</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="AC2" t="n">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="AD2" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="AE2" t="n">
         <v>8</v>
       </c>
       <c r="AF2" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AG2" t="n">
         <v>9</v>
@@ -762,7 +829,7 @@
         <v>14</v>
       </c>
       <c r="AJ2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AK2" t="n">
         <v>14</v>
@@ -774,25 +841,25 @@
         <v>17</v>
       </c>
       <c r="AN2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AO2" t="n">
         <v>22</v>
       </c>
       <c r="AP2" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AQ2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR2" t="n">
         <v>22</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>24</v>
       </c>
       <c r="AS2" t="n">
         <v>11</v>
       </c>
       <c r="AT2" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AU2" t="n">
         <v>7</v>
@@ -813,13 +880,13 @@
         <v>2</v>
       </c>
       <c r="BA2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BB2" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="BC2" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>2-18-2011-12</t>
+          <t>2012-02-18</t>
         </is>
       </c>
     </row>
@@ -935,7 +1002,7 @@
         <v>12</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AH3" t="n">
         <v>17</v>
@@ -956,7 +1023,7 @@
         <v>23</v>
       </c>
       <c r="AN3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO3" t="n">
         <v>24</v>
@@ -965,7 +1032,7 @@
         <v>27</v>
       </c>
       <c r="AQ3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AR3" t="n">
         <v>30</v>
@@ -989,7 +1056,7 @@
         <v>7</v>
       </c>
       <c r="AY3" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AZ3" t="n">
         <v>18</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>2-18-2011-12</t>
+          <t>2012-02-18</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>-13.6</v>
       </c>
       <c r="AD4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AE4" t="n">
         <v>30</v>
@@ -1147,10 +1214,10 @@
         <v>23</v>
       </c>
       <c r="AQ4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AR4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AS4" t="n">
         <v>22</v>
@@ -1168,10 +1235,10 @@
         <v>30</v>
       </c>
       <c r="AX4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AY4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>2-18-2011-12</t>
+          <t>2012-02-18</t>
         </is>
       </c>
     </row>
@@ -1212,58 +1279,58 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E5" t="n">
         <v>25</v>
       </c>
       <c r="F5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G5" t="n">
-        <v>0.758</v>
+        <v>0.781</v>
       </c>
       <c r="H5" t="n">
         <v>48</v>
       </c>
       <c r="I5" t="n">
-        <v>37.6</v>
+        <v>37.8</v>
       </c>
       <c r="J5" t="n">
-        <v>81.8</v>
+        <v>81.7</v>
       </c>
       <c r="K5" t="n">
-        <v>0.46</v>
+        <v>0.462</v>
       </c>
       <c r="L5" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="M5" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="N5" t="n">
-        <v>0.38</v>
+        <v>0.384</v>
       </c>
       <c r="O5" t="n">
         <v>16</v>
       </c>
       <c r="P5" t="n">
-        <v>22</v>
+        <v>21.8</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.728</v>
+        <v>0.734</v>
       </c>
       <c r="R5" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="S5" t="n">
         <v>32.1</v>
       </c>
       <c r="T5" t="n">
-        <v>45.2</v>
+        <v>45.1</v>
       </c>
       <c r="U5" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="V5" t="n">
         <v>13.9</v>
@@ -1275,19 +1342,19 @@
         <v>5.7</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Z5" t="n">
-        <v>17.7</v>
+        <v>17.6</v>
       </c>
       <c r="AA5" t="n">
         <v>18</v>
       </c>
       <c r="AB5" t="n">
-        <v>97.2</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="AC5" t="n">
-        <v>9.1</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD5" t="n">
         <v>1</v>
@@ -1296,16 +1363,16 @@
         <v>1</v>
       </c>
       <c r="AF5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AH5" t="n">
         <v>28</v>
       </c>
       <c r="AI5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AJ5" t="n">
         <v>10</v>
@@ -1317,7 +1384,7 @@
         <v>18</v>
       </c>
       <c r="AM5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AN5" t="n">
         <v>7</v>
@@ -1329,7 +1396,7 @@
         <v>16</v>
       </c>
       <c r="AQ5" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AR5" t="n">
         <v>2</v>
@@ -1350,7 +1417,7 @@
         <v>21</v>
       </c>
       <c r="AX5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY5" t="n">
         <v>9</v>
@@ -1362,7 +1429,7 @@
         <v>27</v>
       </c>
       <c r="BB5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BC5" t="n">
         <v>1</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>2-18-2011-12</t>
+          <t>2012-02-18</t>
         </is>
       </c>
     </row>
@@ -1472,16 +1539,16 @@
         <v>-3.9</v>
       </c>
       <c r="AD6" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AE6" t="n">
         <v>22</v>
       </c>
       <c r="AF6" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG6" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH6" t="n">
         <v>12</v>
@@ -1490,7 +1557,7 @@
         <v>20</v>
       </c>
       <c r="AJ6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AK6" t="n">
         <v>23</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>2-18-2011-12</t>
+          <t>2012-02-18</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>3.7</v>
       </c>
       <c r="AD7" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AE7" t="n">
         <v>5</v>
@@ -1666,7 +1733,7 @@
         <v>6</v>
       </c>
       <c r="AH7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI7" t="n">
         <v>16</v>
@@ -1696,7 +1763,7 @@
         <v>17</v>
       </c>
       <c r="AR7" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AS7" t="n">
         <v>4</v>
@@ -1705,7 +1772,7 @@
         <v>6</v>
       </c>
       <c r="AU7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV7" t="n">
         <v>9</v>
@@ -1714,7 +1781,7 @@
         <v>4</v>
       </c>
       <c r="AX7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY7" t="n">
         <v>6</v>
@@ -1723,10 +1790,10 @@
         <v>15</v>
       </c>
       <c r="BA7" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BB7" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BC7" t="n">
         <v>7</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2-18-2011-12</t>
+          <t>2012-02-18</t>
         </is>
       </c>
     </row>
@@ -1836,16 +1903,16 @@
         <v>3.3</v>
       </c>
       <c r="AD8" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AE8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF8" t="n">
         <v>12</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH8" t="n">
         <v>3</v>
@@ -1878,13 +1945,13 @@
         <v>21</v>
       </c>
       <c r="AR8" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AS8" t="n">
         <v>8</v>
       </c>
       <c r="AT8" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AU8" t="n">
         <v>2</v>
@@ -1911,7 +1978,7 @@
         <v>2</v>
       </c>
       <c r="BC8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>2-18-2011-12</t>
+          <t>2012-02-18</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>-7.3</v>
       </c>
       <c r="AD9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE9" t="n">
         <v>24</v>
@@ -2030,7 +2097,7 @@
         <v>25</v>
       </c>
       <c r="AH9" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AI9" t="n">
         <v>26</v>
@@ -2054,7 +2121,7 @@
         <v>15</v>
       </c>
       <c r="AP9" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AQ9" t="n">
         <v>8</v>
@@ -2066,7 +2133,7 @@
         <v>29</v>
       </c>
       <c r="AT9" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AU9" t="n">
         <v>24</v>
@@ -2075,7 +2142,7 @@
         <v>26</v>
       </c>
       <c r="AW9" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AX9" t="n">
         <v>30</v>
@@ -2093,7 +2160,7 @@
         <v>28</v>
       </c>
       <c r="BC9" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2-18-2011-12</t>
+          <t>2012-02-18</t>
         </is>
       </c>
     </row>
@@ -2122,58 +2189,58 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E10" t="n">
         <v>11</v>
       </c>
       <c r="F10" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G10" t="n">
-        <v>0.393</v>
+        <v>0.407</v>
       </c>
       <c r="H10" t="n">
         <v>48.4</v>
       </c>
       <c r="I10" t="n">
-        <v>37.6</v>
+        <v>37.7</v>
       </c>
       <c r="J10" t="n">
         <v>81.90000000000001</v>
       </c>
       <c r="K10" t="n">
-        <v>0.459</v>
+        <v>0.46</v>
       </c>
       <c r="L10" t="n">
-        <v>8.300000000000001</v>
+        <v>8.1</v>
       </c>
       <c r="M10" t="n">
-        <v>21</v>
+        <v>20.8</v>
       </c>
       <c r="N10" t="n">
-        <v>0.395</v>
+        <v>0.391</v>
       </c>
       <c r="O10" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="P10" t="n">
-        <v>20.5</v>
+        <v>20.3</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.744</v>
+        <v>0.743</v>
       </c>
       <c r="R10" t="n">
         <v>10.5</v>
       </c>
       <c r="S10" t="n">
-        <v>29.1</v>
+        <v>29.4</v>
       </c>
       <c r="T10" t="n">
-        <v>39.6</v>
+        <v>39.9</v>
       </c>
       <c r="U10" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="V10" t="n">
         <v>14.9</v>
@@ -2182,43 +2249,43 @@
         <v>8.800000000000001</v>
       </c>
       <c r="X10" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="Y10" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="Z10" t="n">
-        <v>23</v>
+        <v>22.8</v>
       </c>
       <c r="AA10" t="n">
-        <v>18</v>
+        <v>17.9</v>
       </c>
       <c r="AB10" t="n">
-        <v>98.8</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="AC10" t="n">
-        <v>-1.9</v>
+        <v>-2</v>
       </c>
       <c r="AD10" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AE10" t="n">
         <v>22</v>
       </c>
       <c r="AF10" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG10" t="n">
         <v>20</v>
       </c>
-      <c r="AG10" t="n">
-        <v>21</v>
-      </c>
       <c r="AH10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AJ10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AK10" t="n">
         <v>6</v>
@@ -2233,10 +2300,10 @@
         <v>2</v>
       </c>
       <c r="AO10" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AP10" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AQ10" t="n">
         <v>15</v>
@@ -2245,10 +2312,10 @@
         <v>20</v>
       </c>
       <c r="AS10" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AT10" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AU10" t="n">
         <v>3</v>
@@ -2260,10 +2327,10 @@
         <v>6</v>
       </c>
       <c r="AX10" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AY10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AZ10" t="n">
         <v>29</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>2-18-2011-12</t>
+          <t>2012-02-18</t>
         </is>
       </c>
     </row>
@@ -2382,19 +2449,19 @@
         <v>0.9</v>
       </c>
       <c r="AD11" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AE11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF11" t="n">
         <v>12</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI11" t="n">
         <v>2</v>
@@ -2409,7 +2476,7 @@
         <v>7</v>
       </c>
       <c r="AM11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN11" t="n">
         <v>13</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>2-18-2011-12</t>
+          <t>2012-02-18</t>
         </is>
       </c>
     </row>
@@ -2564,13 +2631,13 @@
         <v>1.3</v>
       </c>
       <c r="AD12" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AE12" t="n">
         <v>10</v>
       </c>
       <c r="AF12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG12" t="n">
         <v>10</v>
@@ -2585,7 +2652,7 @@
         <v>16</v>
       </c>
       <c r="AK12" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL12" t="n">
         <v>23</v>
@@ -2606,7 +2673,7 @@
         <v>4</v>
       </c>
       <c r="AR12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AS12" t="n">
         <v>12</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2-18-2011-12</t>
+          <t>2012-02-18</t>
         </is>
       </c>
     </row>
@@ -2668,97 +2735,97 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E13" t="n">
         <v>19</v>
       </c>
       <c r="F13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G13" t="n">
-        <v>0.655</v>
+        <v>0.679</v>
       </c>
       <c r="H13" t="n">
-        <v>48.5</v>
+        <v>48.4</v>
       </c>
       <c r="I13" t="n">
         <v>36.6</v>
       </c>
       <c r="J13" t="n">
-        <v>80.59999999999999</v>
+        <v>80.3</v>
       </c>
       <c r="K13" t="n">
-        <v>0.454</v>
+        <v>0.456</v>
       </c>
       <c r="L13" t="n">
         <v>7.7</v>
       </c>
       <c r="M13" t="n">
-        <v>21.8</v>
+        <v>21.6</v>
       </c>
       <c r="N13" t="n">
-        <v>0.353</v>
+        <v>0.355</v>
       </c>
       <c r="O13" t="n">
-        <v>17</v>
+        <v>16.9</v>
       </c>
       <c r="P13" t="n">
-        <v>24.8</v>
+        <v>24.9</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.6840000000000001</v>
+        <v>0.678</v>
       </c>
       <c r="R13" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="S13" t="n">
-        <v>30.9</v>
+        <v>30.5</v>
       </c>
       <c r="T13" t="n">
-        <v>42.6</v>
+        <v>42.3</v>
       </c>
       <c r="U13" t="n">
         <v>21.6</v>
       </c>
       <c r="V13" t="n">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="W13" t="n">
         <v>7.9</v>
       </c>
       <c r="X13" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="Y13" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="Z13" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="AA13" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="AB13" t="n">
-        <v>97.8</v>
+        <v>97.7</v>
       </c>
       <c r="AC13" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="AD13" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AE13" t="n">
         <v>8</v>
       </c>
       <c r="AF13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AG13" t="n">
         <v>5</v>
       </c>
       <c r="AH13" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AI13" t="n">
         <v>11</v>
@@ -2770,19 +2837,19 @@
         <v>8</v>
       </c>
       <c r="AL13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AM13" t="n">
         <v>4</v>
       </c>
       <c r="AN13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO13" t="n">
         <v>12</v>
       </c>
       <c r="AP13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AQ13" t="n">
         <v>29</v>
@@ -2791,10 +2858,10 @@
         <v>14</v>
       </c>
       <c r="AS13" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AT13" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AU13" t="n">
         <v>11</v>
@@ -2806,10 +2873,10 @@
         <v>15</v>
       </c>
       <c r="AX13" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AY13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AZ13" t="n">
         <v>26</v>
@@ -2821,7 +2888,7 @@
         <v>6</v>
       </c>
       <c r="BC13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2-18-2011-12</t>
+          <t>2012-02-18</t>
         </is>
       </c>
     </row>
@@ -2928,13 +2995,13 @@
         <v>2.4</v>
       </c>
       <c r="AD14" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AE14" t="n">
         <v>10</v>
       </c>
       <c r="AF14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG14" t="n">
         <v>10</v>
@@ -2961,7 +3028,7 @@
         <v>27</v>
       </c>
       <c r="AO14" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AP14" t="n">
         <v>13</v>
@@ -2997,7 +3064,7 @@
         <v>6</v>
       </c>
       <c r="BA14" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BB14" t="n">
         <v>22</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2-18-2011-12</t>
+          <t>2012-02-18</t>
         </is>
       </c>
     </row>
@@ -3032,16 +3099,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E15" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F15" t="n">
         <v>14</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5629999999999999</v>
+        <v>0.548</v>
       </c>
       <c r="H15" t="n">
         <v>48.2</v>
@@ -3050,43 +3117,43 @@
         <v>36.4</v>
       </c>
       <c r="J15" t="n">
-        <v>82</v>
+        <v>82.3</v>
       </c>
       <c r="K15" t="n">
-        <v>0.444</v>
+        <v>0.442</v>
       </c>
       <c r="L15" t="n">
         <v>3.6</v>
       </c>
       <c r="M15" t="n">
-        <v>11.2</v>
+        <v>11.3</v>
       </c>
       <c r="N15" t="n">
-        <v>0.323</v>
+        <v>0.321</v>
       </c>
       <c r="O15" t="n">
-        <v>17.2</v>
+        <v>16.9</v>
       </c>
       <c r="P15" t="n">
-        <v>22.8</v>
+        <v>22.3</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.755</v>
+        <v>0.759</v>
       </c>
       <c r="R15" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="S15" t="n">
-        <v>29.8</v>
+        <v>29.7</v>
       </c>
       <c r="T15" t="n">
-        <v>42.3</v>
+        <v>42.2</v>
       </c>
       <c r="U15" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="V15" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="W15" t="n">
         <v>10.2</v>
@@ -3095,25 +3162,25 @@
         <v>5.1</v>
       </c>
       <c r="Y15" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="Z15" t="n">
         <v>19.5</v>
       </c>
       <c r="AA15" t="n">
-        <v>20</v>
+        <v>19.7</v>
       </c>
       <c r="AB15" t="n">
-        <v>93.59999999999999</v>
+        <v>93.3</v>
       </c>
       <c r="AC15" t="n">
         <v>1.1</v>
       </c>
       <c r="AD15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE15" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AF15" t="n">
         <v>12</v>
@@ -3122,16 +3189,16 @@
         <v>12</v>
       </c>
       <c r="AH15" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI15" t="n">
         <v>12</v>
       </c>
       <c r="AJ15" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AK15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AL15" t="n">
         <v>30</v>
@@ -3146,10 +3213,10 @@
         <v>11</v>
       </c>
       <c r="AP15" t="n">
+        <v>14</v>
+      </c>
+      <c r="AQ15" t="n">
         <v>12</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>13</v>
       </c>
       <c r="AR15" t="n">
         <v>4</v>
@@ -3170,19 +3237,19 @@
         <v>1</v>
       </c>
       <c r="AX15" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AY15" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AZ15" t="n">
         <v>12</v>
       </c>
       <c r="BA15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BB15" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BC15" t="n">
         <v>17</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>2-18-2011-12</t>
+          <t>2012-02-18</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>9</v>
       </c>
       <c r="AD16" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AE16" t="n">
         <v>2</v>
@@ -3301,7 +3368,7 @@
         <v>1</v>
       </c>
       <c r="AG16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH16" t="n">
         <v>2</v>
@@ -3310,7 +3377,7 @@
         <v>1</v>
       </c>
       <c r="AJ16" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK16" t="n">
         <v>1</v>
@@ -3334,7 +3401,7 @@
         <v>6</v>
       </c>
       <c r="AR16" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AS16" t="n">
         <v>5</v>
@@ -3346,7 +3413,7 @@
         <v>13</v>
       </c>
       <c r="AV16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AW16" t="n">
         <v>8</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>2-18-2011-12</t>
+          <t>2012-02-18</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>-2</v>
       </c>
       <c r="AD17" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AE17" t="n">
         <v>20</v>
@@ -3483,7 +3550,7 @@
         <v>22</v>
       </c>
       <c r="AG17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH17" t="n">
         <v>18</v>
@@ -3510,7 +3577,7 @@
         <v>16</v>
       </c>
       <c r="AP17" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AQ17" t="n">
         <v>2</v>
@@ -3519,7 +3586,7 @@
         <v>5</v>
       </c>
       <c r="AS17" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AT17" t="n">
         <v>22</v>
@@ -3534,7 +3601,7 @@
         <v>14</v>
       </c>
       <c r="AX17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY17" t="n">
         <v>14</v>
@@ -3546,7 +3613,7 @@
         <v>16</v>
       </c>
       <c r="BB17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BC17" t="n">
         <v>21</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>2-18-2011-12</t>
+          <t>2012-02-18</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>1.3</v>
       </c>
       <c r="AD18" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AE18" t="n">
         <v>16</v>
@@ -3683,7 +3750,7 @@
         <v>15</v>
       </c>
       <c r="AM18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN18" t="n">
         <v>21</v>
@@ -3698,7 +3765,7 @@
         <v>9</v>
       </c>
       <c r="AR18" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AS18" t="n">
         <v>6</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2-18-2011-12</t>
+          <t>2012-02-18</t>
         </is>
       </c>
     </row>
@@ -3760,16 +3827,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E19" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F19" t="n">
         <v>23</v>
       </c>
       <c r="G19" t="n">
-        <v>0.281</v>
+        <v>0.258</v>
       </c>
       <c r="H19" t="n">
         <v>48.2</v>
@@ -3778,88 +3845,88 @@
         <v>33.5</v>
       </c>
       <c r="J19" t="n">
-        <v>78.90000000000001</v>
+        <v>78.7</v>
       </c>
       <c r="K19" t="n">
-        <v>0.425</v>
+        <v>0.426</v>
       </c>
       <c r="L19" t="n">
-        <v>8.800000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="M19" t="n">
-        <v>24.6</v>
+        <v>24.7</v>
       </c>
       <c r="N19" t="n">
-        <v>0.355</v>
+        <v>0.352</v>
       </c>
       <c r="O19" t="n">
-        <v>16.8</v>
+        <v>16.7</v>
       </c>
       <c r="P19" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.779</v>
+        <v>0.78</v>
       </c>
       <c r="R19" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="S19" t="n">
-        <v>27</v>
+        <v>26.7</v>
       </c>
       <c r="T19" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="U19" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="V19" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="W19" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="X19" t="n">
         <v>4.4</v>
       </c>
       <c r="Y19" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Z19" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="AA19" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="AB19" t="n">
-        <v>92.59999999999999</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="AC19" t="n">
-        <v>-6.9</v>
+        <v>-7.5</v>
       </c>
       <c r="AD19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE19" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AF19" t="n">
         <v>26</v>
       </c>
       <c r="AG19" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AH19" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI19" t="n">
         <v>30</v>
       </c>
       <c r="AJ19" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AK19" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL19" t="n">
         <v>2</v>
@@ -3868,10 +3935,10 @@
         <v>2</v>
       </c>
       <c r="AN19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO19" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AP19" t="n">
         <v>18</v>
@@ -3880,7 +3947,7 @@
         <v>7</v>
       </c>
       <c r="AR19" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AS19" t="n">
         <v>30</v>
@@ -3892,7 +3959,7 @@
         <v>20</v>
       </c>
       <c r="AV19" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AW19" t="n">
         <v>26</v>
@@ -3913,7 +3980,7 @@
         <v>24</v>
       </c>
       <c r="BC19" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>2-18-2011-12</t>
+          <t>2012-02-18</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>-5.2</v>
       </c>
       <c r="AD20" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AE20" t="n">
         <v>28</v>
@@ -4056,7 +4123,7 @@
         <v>26</v>
       </c>
       <c r="AP20" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AQ20" t="n">
         <v>20</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>2-18-2011-12</t>
+          <t>2012-02-18</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>1.3</v>
       </c>
       <c r="AD21" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AE21" t="n">
         <v>16</v>
@@ -4250,7 +4317,7 @@
         <v>16</v>
       </c>
       <c r="AT21" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AU21" t="n">
         <v>23</v>
@@ -4265,7 +4332,7 @@
         <v>29</v>
       </c>
       <c r="AY21" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AZ21" t="n">
         <v>25</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>2-18-2011-12</t>
+          <t>2012-02-18</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>5.8</v>
       </c>
       <c r="AD22" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AE22" t="n">
         <v>3</v>
@@ -4393,7 +4460,7 @@
         <v>1</v>
       </c>
       <c r="AG22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH22" t="n">
         <v>18</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>2-18-2011-12</t>
+          <t>2012-02-18</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>2.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AE23" t="n">
         <v>5</v>
@@ -4578,7 +4645,7 @@
         <v>6</v>
       </c>
       <c r="AH23" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI23" t="n">
         <v>29</v>
@@ -4638,7 +4705,7 @@
         <v>7</v>
       </c>
       <c r="BB23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BC23" t="n">
         <v>12</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>2-18-2011-12</t>
+          <t>2012-02-18</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>7.8</v>
       </c>
       <c r="AD24" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AE24" t="n">
         <v>5</v>
@@ -4775,7 +4842,7 @@
         <v>20</v>
       </c>
       <c r="AM24" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AN24" t="n">
         <v>8</v>
@@ -4787,7 +4854,7 @@
         <v>28</v>
       </c>
       <c r="AQ24" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AR24" t="n">
         <v>29</v>
@@ -4820,7 +4887,7 @@
         <v>30</v>
       </c>
       <c r="BB24" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BC24" t="n">
         <v>3</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>2-18-2011-12</t>
+          <t>2012-02-18</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>-3.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AE25" t="n">
         <v>20</v>
@@ -4972,7 +5039,7 @@
         <v>10</v>
       </c>
       <c r="AR25" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AS25" t="n">
         <v>14</v>
@@ -4990,7 +5057,7 @@
         <v>22</v>
       </c>
       <c r="AX25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AY25" t="n">
         <v>5</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>2-18-2011-12</t>
+          <t>2012-02-18</t>
         </is>
       </c>
     </row>
@@ -5034,64 +5101,64 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E26" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F26" t="n">
         <v>15</v>
       </c>
       <c r="G26" t="n">
-        <v>0.531</v>
+        <v>0.516</v>
       </c>
       <c r="H26" t="n">
         <v>48.6</v>
       </c>
       <c r="I26" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="J26" t="n">
-        <v>83</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="K26" t="n">
-        <v>0.443</v>
+        <v>0.442</v>
       </c>
       <c r="L26" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="M26" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="N26" t="n">
-        <v>0.322</v>
+        <v>0.319</v>
       </c>
       <c r="O26" t="n">
-        <v>17.6</v>
+        <v>17.8</v>
       </c>
       <c r="P26" t="n">
-        <v>22.5</v>
+        <v>22.7</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.783</v>
+        <v>0.784</v>
       </c>
       <c r="R26" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="S26" t="n">
-        <v>30.8</v>
+        <v>30.7</v>
       </c>
       <c r="T26" t="n">
-        <v>42</v>
+        <v>41.8</v>
       </c>
       <c r="U26" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="V26" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="W26" t="n">
-        <v>8.9</v>
+        <v>9</v>
       </c>
       <c r="X26" t="n">
         <v>5.2</v>
@@ -5100,31 +5167,31 @@
         <v>5.2</v>
       </c>
       <c r="Z26" t="n">
-        <v>20</v>
+        <v>20.2</v>
       </c>
       <c r="AA26" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="AB26" t="n">
-        <v>97.40000000000001</v>
+        <v>97.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="AD26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE26" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF26" t="n">
         <v>17</v>
       </c>
       <c r="AG26" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AI26" t="n">
         <v>9</v>
@@ -5133,7 +5200,7 @@
         <v>5</v>
       </c>
       <c r="AK26" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL26" t="n">
         <v>16</v>
@@ -5148,7 +5215,7 @@
         <v>9</v>
       </c>
       <c r="AP26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AQ26" t="n">
         <v>5</v>
@@ -5157,19 +5224,19 @@
         <v>16</v>
       </c>
       <c r="AS26" t="n">
+        <v>17</v>
+      </c>
+      <c r="AT26" t="n">
         <v>18</v>
       </c>
-      <c r="AT26" t="n">
-        <v>17</v>
-      </c>
       <c r="AU26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV26" t="n">
         <v>7</v>
       </c>
       <c r="AW26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX26" t="n">
         <v>13</v>
@@ -5184,10 +5251,10 @@
         <v>6</v>
       </c>
       <c r="BB26" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BC26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>2-18-2011-12</t>
+          <t>2012-02-18</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>-8.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AE27" t="n">
         <v>24</v>
@@ -5321,7 +5388,7 @@
         <v>17</v>
       </c>
       <c r="AM27" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AN27" t="n">
         <v>25</v>
@@ -5330,7 +5397,7 @@
         <v>8</v>
       </c>
       <c r="AP27" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AQ27" t="n">
         <v>19</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>2-18-2011-12</t>
+          <t>2012-02-18</t>
         </is>
       </c>
     </row>
@@ -5398,52 +5465,52 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E28" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F28" t="n">
         <v>9</v>
       </c>
       <c r="G28" t="n">
-        <v>0.71</v>
+        <v>0.7</v>
       </c>
       <c r="H28" t="n">
-        <v>48.6</v>
+        <v>48.5</v>
       </c>
       <c r="I28" t="n">
-        <v>37.9</v>
+        <v>37.8</v>
       </c>
       <c r="J28" t="n">
-        <v>82.2</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K28" t="n">
-        <v>0.461</v>
+        <v>0.462</v>
       </c>
       <c r="L28" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="M28" t="n">
-        <v>20</v>
+        <v>19.7</v>
       </c>
       <c r="N28" t="n">
-        <v>0.387</v>
+        <v>0.385</v>
       </c>
       <c r="O28" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="P28" t="n">
         <v>20.9</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.723</v>
+        <v>0.729</v>
       </c>
       <c r="R28" t="n">
-        <v>10</v>
+        <v>9.9</v>
       </c>
       <c r="S28" t="n">
-        <v>31.7</v>
+        <v>31.8</v>
       </c>
       <c r="T28" t="n">
         <v>41.7</v>
@@ -5452,31 +5519,31 @@
         <v>22.4</v>
       </c>
       <c r="V28" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="W28" t="n">
         <v>6.9</v>
       </c>
       <c r="X28" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Y28" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="Z28" t="n">
-        <v>17.3</v>
+        <v>17.1</v>
       </c>
       <c r="AA28" t="n">
         <v>19.2</v>
       </c>
       <c r="AB28" t="n">
-        <v>98.7</v>
+        <v>98.5</v>
       </c>
       <c r="AC28" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="AD28" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="AE28" t="n">
         <v>4</v>
@@ -5488,43 +5555,43 @@
         <v>4</v>
       </c>
       <c r="AH28" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AI28" t="n">
         <v>4</v>
       </c>
       <c r="AJ28" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AK28" t="n">
         <v>4</v>
       </c>
       <c r="AL28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AM28" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AN28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AO28" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AP28" t="n">
         <v>22</v>
       </c>
       <c r="AQ28" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AR28" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AS28" t="n">
         <v>10</v>
       </c>
       <c r="AT28" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AU28" t="n">
         <v>4</v>
@@ -5533,25 +5600,25 @@
         <v>2</v>
       </c>
       <c r="AW28" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AX28" t="n">
         <v>24</v>
       </c>
       <c r="AY28" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AZ28" t="n">
         <v>1</v>
       </c>
       <c r="BA28" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BB28" t="n">
         <v>5</v>
       </c>
       <c r="BC28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>2-18-2011-12</t>
+          <t>2012-02-18</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>-5.5</v>
       </c>
       <c r="AD29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE29" t="n">
         <v>26</v>
@@ -5670,13 +5737,13 @@
         <v>26</v>
       </c>
       <c r="AH29" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI29" t="n">
         <v>27</v>
       </c>
       <c r="AJ29" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK29" t="n">
         <v>24</v>
@@ -5706,7 +5773,7 @@
         <v>13</v>
       </c>
       <c r="AT29" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AU29" t="n">
         <v>17</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>2-18-2011-12</t>
+          <t>2012-02-18</t>
         </is>
       </c>
     </row>
@@ -5849,10 +5916,10 @@
         <v>12</v>
       </c>
       <c r="AG30" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AH30" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI30" t="n">
         <v>8</v>
@@ -5882,13 +5949,13 @@
         <v>18</v>
       </c>
       <c r="AR30" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AS30" t="n">
         <v>20</v>
       </c>
       <c r="AT30" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AU30" t="n">
         <v>16</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>2-18-2011-12</t>
+          <t>2012-02-18</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>-8.699999999999999</v>
       </c>
       <c r="AD31" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AE31" t="n">
         <v>28</v>
@@ -6061,7 +6128,7 @@
         <v>15</v>
       </c>
       <c r="AQ31" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AR31" t="n">
         <v>12</v>
@@ -6076,7 +6143,7 @@
         <v>28</v>
       </c>
       <c r="AV31" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AW31" t="n">
         <v>11</v>
@@ -6085,7 +6152,7 @@
         <v>2</v>
       </c>
       <c r="AY31" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ31" t="n">
         <v>27</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>2-18-2011-12</t>
+          <t>2012-02-18</t>
         </is>
       </c>
     </row>
